--- a/biology/Botanique/Liste_des_parcs_et_espaces_verts_de_Montréal/Liste_des_parcs_et_espaces_verts_de_Montréal.xlsx
+++ b/biology/Botanique/Liste_des_parcs_et_espaces_verts_de_Montréal/Liste_des_parcs_et_espaces_verts_de_Montréal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_parcs_et_espaces_verts_de_Montr%C3%A9al</t>
+          <t>Liste_des_parcs_et_espaces_verts_de_Montréal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Voici la liste des parcs et espaces verts de la ville de Montréal :
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_parcs_et_espaces_verts_de_Montr%C3%A9al</t>
+          <t>Liste_des_parcs_et_espaces_verts_de_Montréal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Grands parcs, places publiques et squares</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Parcs urbains importants :
 Parc du Mont-Royal (1,90 km2)
@@ -565,7 +579,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_parcs_et_espaces_verts_de_Montr%C3%A9al</t>
+          <t>Liste_des_parcs_et_espaces_verts_de_Montréal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -585,7 +599,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Arrondissement Ahuntsic-Cartierville
+          <t>Arrondissement Ahuntsic-Cartierville</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Parc Ahuntsic
 Jardin communautaire Pierre-Lapointe
 Parc à chien
@@ -646,7 +666,43 @@
 Jardin communautaire Gérard-Legault
 Pavillon d'accueil du Parcours Gouin
 Place lona-Monahan
-Arrondissement Anjou
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_espaces_verts_de_Montréal</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_espaces_verts_de_Montr%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Par arrondissement[1]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Arrondissement Anjou</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Boisé Saint-Conrad
 Espace vert de l'Eau-Vive
 Parc André-Laurendeau
@@ -675,7 +731,43 @@
 Parc à chiens
 Parc Roger-Rousseau
 Jardin communautaire
-Arrondissement Côte-des-Neiges–Notre-Dame-de-Grâce
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_espaces_verts_de_Montréal</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_espaces_verts_de_Montr%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Par arrondissement[1]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Arrondissement Côte-des-Neiges–Notre-Dame-de-Grâce</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Belvédère Terry-Fox
 Parc Benny
 Parc Coffee
@@ -725,7 +817,43 @@
 Place du 6-Décembre-1989
 Place Guillaume-Couture
 Place Guy-Viau
-Arrondissement L'Île-Bizard–Sainte-Geneviève
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_espaces_verts_de_Montréal</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_espaces_verts_de_Montr%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Par arrondissement[1]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Arrondissement L'Île-Bizard–Sainte-Geneviève</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Parc Antoine-Pilet
 Parc Bastien-Lavigne
 Parc Blaise-Closse
@@ -755,7 +883,43 @@
 Parc Saint-Malo
 Parc Saint-Pierre (Montréal)
 Parc Triolet
-Arrondissement Lachine
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_espaces_verts_de_Montréal</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_espaces_verts_de_Montr%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Par arrondissement[1]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Arrondissement Lachine</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Aire de repos 8e Avenue
 Parc 25e Avenue
 Parc 40e Avenue / 41e Avenue
@@ -810,7 +974,43 @@
 Promenade du Rail
 Parc à chiens
 Promenade Père-Marquette
-Arrondissement LaSalle
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_espaces_verts_de_Montréal</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_espaces_verts_de_Montr%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Par arrondissement[1]</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Arrondissement LaSalle</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Parc Albert-Perras
 Parc Boivin
 Parc Cavelier-De LaSalle
@@ -865,7 +1065,43 @@
 Promenade Michel-Chartrand
 Butte de glissade du terrain de la mairie d'arrondissement
 Jardins communautaires Charles- Nagy
-Arrondissement Le Plateau-Mont-Royal
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_espaces_verts_de_Montréal</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_espaces_verts_de_Montr%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Par arrondissement[1]</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Arrondissement Le Plateau-Mont-Royal</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Avenue Duluth Ouest
 Parc Albert-Saint-Martin
 Parc Alphonse-Télésphore-Lépine
@@ -929,7 +1165,43 @@
 Jardin communautaire Rivard
 Jardin du Monastère
 Jardins du Petit-Laurier
-Arrondissement Le Sud-Ouest
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_espaces_verts_de_Montréal</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_espaces_verts_de_Montr%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Par arrondissement[1]</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Arrondissement Le Sud-Ouest</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Carré d’Hibernia
 Parc Angrignon
 Jardin communautaire
@@ -1032,7 +1304,43 @@
 Jardin communautaire Pointe-Verte
 Parc à chiens - bande Saint-Antoine
 Parc à chiens Saint-Patrick
-Arrondissement Mercier-Hochelaga-Maisonneuve
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_espaces_verts_de_Montréal</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_espaces_verts_de_Montr%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Par arrondissement[1]</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Arrondissement Mercier-Hochelaga-Maisonneuve</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Parc Adhémar-Raynault
 Parc Antenne Longue-Pointe
 Parc Aubry / De Teck
@@ -1119,7 +1427,43 @@
 Jardin communautaire Monsabré
 Jardin communautaire Pierre-Bernard
 Parc à chiens Wolfred-Nelson
-Arrondissement Montréal-Nord
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_espaces_verts_de_Montréal</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_espaces_verts_de_Montr%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Par arrondissement[1]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Arrondissement Montréal-Nord</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Parc Aimé-Léonard
 Parc Chabot
 Parc Charleroi
@@ -1152,7 +1496,43 @@
 Parc Tardif
 Jardin communautaire
 Parc Villeneuve
-Arrondissement Outremont
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_espaces_verts_de_Montréal</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_espaces_verts_de_Montr%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Par arrondissement[1]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Arrondissement Outremont</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Parc Beaubien
 Parc de L'Épée
 Parc du Mont-Royal
@@ -1172,7 +1552,43 @@
 Place Alice-Girard
 Place Marcelle-Ferron
 Parc canin d'Outremont (parc Mali)
-Arrondissement Pierrefonds-Roxboro
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_espaces_verts_de_Montréal</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_espaces_verts_de_Montr%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Par arrondissement[1]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Arrondissement Pierrefonds-Roxboro</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Parc Alexander
 Patinoire
 Parc Alphonse-Desjardins
@@ -1266,7 +1682,43 @@
 Patinoire de la mairie de Pierrefonds-Roxboro
 Place À-Ma-Baie
 Île de Roxboro
-Arrondissement Rivière-des-Prairies-Pointe-aux-Trembles
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_espaces_verts_de_Montréal</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_espaces_verts_de_Montr%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Par arrondissement[1]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Arrondissement Rivière-des-Prairies-Pointe-aux-Trembles</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Parc Agnès-Vautier
 Parc Albéric-Bourgeois
 Parc André-Corbeil-Dit-Tranchemontagne
@@ -1349,7 +1801,43 @@
 ]]
 Jardin communautaire Sainte-Maria-Goretti
 Jardin communautaire Sainte-Marthe
-Arrondissement Rosemont-La Petite-Patrie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_espaces_verts_de_Montréal</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_espaces_verts_de_Montr%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Par arrondissement[1]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Arrondissement Rosemont-La Petite-Patrie</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Espace Boyer
 Jardin botanique de Montréal
 Parc Annie-Montgomery
@@ -1422,7 +1910,43 @@
 Jardin communautaire Pré-Carré
 Jardin communautaire Saint-Marc
 Jardin Marcelle-Gauvreau
-Arrondissement Saint-Laurent
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_espaces_verts_de_Montréal</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_espaces_verts_de_Montr%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Par arrondissement[1]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Arrondissement Saint-Laurent</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Parc Aimé-Caron
 Parc Alexis-Nihon
 Jardin communautaire
@@ -1487,7 +2011,43 @@
 Jardin communautaire super jardin
 Parc à chiens Crépeau
 Parc à chiens Montpellier
-Arrondissement Saint-Léonard
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_espaces_verts_de_Montréal</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_espaces_verts_de_Montr%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Par arrondissement[1]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Arrondissement Saint-Léonard</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Parc Coubertin
 Pavillon du parc
 Parc Delorme
@@ -1510,8 +2070,43 @@
 Parc Wilfrid-Bastien
 Pavillon du parc
 Pavillon Hexagonal
-Arrondissement Verdun
-SUD-OUEST
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_espaces_verts_de_Montréal</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_espaces_verts_de_Montr%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Par arrondissement[1]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Arrondissement Verdun</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUD-OUEST
 Domaine Saint-Paul
 Parc Adrien-D.-Archambault
 Jardin communautaire
@@ -1569,7 +2164,43 @@
 Placette verdunoise
 Plage urbaine de Verdun
 Terrain de pétanque de la rue des Fauvettes
-Arrondissement Ville-Marie
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_espaces_verts_de_Montréal</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_espaces_verts_de_Montr%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Par arrondissement[1]</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Arrondissement Ville-Marie</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Belvédère Camillien-Houde
 Belvédère du Chemin-Qui-Marche
 Belvédère Kondiaronk
@@ -1655,7 +2286,43 @@
 Jardin communautaire Versailles
 Parc à chiens Lucien-L'Allier
 Parc à chiens Pilote
-Arrondissement Villeray-Saint-Michel-Parc-Extension
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_des_parcs_et_espaces_verts_de_Montréal</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_parcs_et_espaces_verts_de_Montr%C3%A9al</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Par arrondissement[1]</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Arrondissement Villeray-Saint-Michel-Parc-Extension</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Parc Athéna
 Parc Azellus-Denis
 Parc Beaumont-De-L'Épée
